--- a/数据整理/stocks/A股/上证主板/600295-鄂尔多斯.xlsx
+++ b/数据整理/stocks/A股/上证主板/600295-鄂尔多斯.xlsx
@@ -7,7 +7,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -849,7 +850,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -860,17 +861,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -880,13 +901,141 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C2" t="n">
+      <c r="C3" t="n">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D3" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600295-鄂尔多斯.xlsx
+++ b/数据整理/stocks/A股/上证主板/600295-鄂尔多斯.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -982,7 +983,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -993,17 +994,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1013,14 +1034,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.12</v>
+          <t>009327</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1029,13 +1072,119 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>009328</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>东兴兴晟混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.83</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>9</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600295-鄂尔多斯.xlsx
+++ b/数据整理/stocks/A股/上证主板/600295-鄂尔多斯.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1115,7 +1116,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1126,17 +1127,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1146,14 +1167,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>2</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>19.78</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.10</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5321</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -1162,14 +1205,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.12</v>
+          <t>007423</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -1178,13 +1243,135 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600295-鄂尔多斯.xlsx
+++ b/数据整理/stocks/A股/上证主板/600295-鄂尔多斯.xlsx
@@ -6,11 +6,11 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,395 +454,97 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>011251</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华安聚嘉精选混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>59.25</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>78.75</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>2.6722</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011128</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华安精致生活混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>44.79</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>81.26</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>2.1499</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
         <v>3</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>011252</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华安聚嘉精选混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>31.90</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.75</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>1.4387</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>002350</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华安安华灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>40.83</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>82.26</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.07</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.8452</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>9</v>
       </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>011129</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安精致生活混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>10.65</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>81.26</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.80</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.5112</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>519909</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华安安顺灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.08</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>76.46</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.73</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3844</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000866</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华宝高端制造股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2.50</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>83.51</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.48</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1120</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>310368</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>申万菱信竞争优势混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.21</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>94.37</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>5.19</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0628</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>004284</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华宝新优选一年定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>60.79</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.04</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>2</v>
+      <c r="D5" t="n">
+        <v>8.199999999999999</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -852,7 +554,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,32 +605,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>515210</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>国泰中证钢铁ETF</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>19.78</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>97.10</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.69</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1124</t>
+          <t>0.5321</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -941,36 +643,74 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007776</t>
+          <t>007423</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合C</t>
+          <t>西部利得聚禾灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>76.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0228</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>007424</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>西部利得聚禾灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>76.98</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0164</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1116,7 +856,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1167,32 +907,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>515210</t>
+          <t>007775</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰中证钢铁ETF</t>
+          <t>汇安量化先锋混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>19.78</t>
+          <t>4.00</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>97.10</t>
+          <t>93.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.69</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5321</t>
+          <t>0.1124</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1205,74 +945,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007423</t>
+          <t>007776</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>西部利得聚禾灵活配置混合A</t>
+          <t>汇安量化先锋混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.67</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>76.98</t>
+          <t>93.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0228</t>
+          <t>0.0039</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>007424</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>西部利得聚禾灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>76.98</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0164</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1286,96 +988,394 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>011251</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6722</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011128</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华安精致生活混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>44.79</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.1499</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>0.57</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011252</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华安聚嘉精选混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>31.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.4387</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>002350</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华安安华灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>40.83</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>82.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8452</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011129</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安精致生活混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.65</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>81.26</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5112</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>519909</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安顺灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>76.46</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3844</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000866</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华宝高端制造股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.48</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1120</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>310368</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>申万菱信竞争优势混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0628</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
         <v>2</v>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>004284</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华宝新优选一年定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>60.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.12</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>9</v>
-      </c>
-      <c r="D5" t="n">
-        <v>8.199999999999999</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600295-鄂尔多斯.xlsx
+++ b/数据整理/stocks/A股/上证主板/600295-鄂尔多斯.xlsx
@@ -7,10 +7,11 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -454,7 +455,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,14 +486,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>0.57</v>
+        <v>0.46</v>
       </c>
     </row>
     <row r="3">
@@ -501,14 +502,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.57</v>
       </c>
     </row>
     <row r="4">
@@ -517,14 +518,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -533,13 +534,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q3</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>9</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>8.199999999999999</v>
       </c>
     </row>
@@ -549,6 +566,250 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>515210</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国泰中证钢铁ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3999</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>163110</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>012977</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0212</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>012978</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>瑞达鑫红量化6个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.69</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>申万菱信量化小盘股票（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -711,138 +972,6 @@
       </c>
       <c r="H4" t="n">
         <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009327</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>79.83</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0031</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009328</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>东兴兴晟混合C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.83</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>0.91</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0007</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -907,32 +1036,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>007775</t>
+          <t>009327</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合A</t>
+          <t>东兴兴晟混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4.00</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>79.83</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1124</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -945,32 +1074,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007776</t>
+          <t>009328</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇安量化先锋混合C</t>
+          <t>东兴兴晟混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.64</t>
+          <t>79.83</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>0.91</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0039</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -983,6 +1112,138 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007775</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1124</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007776</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇安量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
